--- a/Documentos/BASE-DE-DATOS-DEL-SISTEMA.xlsx
+++ b/Documentos/BASE-DE-DATOS-DEL-SISTEMA.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Descubre_Turismo\Documentos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="17865" windowHeight="12375" tabRatio="674"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17865" windowHeight="12375" tabRatio="674" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SITIOS TURISTICOS" sheetId="1" r:id="rId1"/>
     <sheet name="EVENTOS" sheetId="2" r:id="rId2"/>
     <sheet name="MUSEOS, CASONAS Y IGLESIAS" sheetId="3" r:id="rId3"/>
-    <sheet name="RESTAURANTES" sheetId="4" r:id="rId4"/>
-    <sheet name="HOSPEDAJES" sheetId="5" r:id="rId5"/>
-    <sheet name="PIE DE PAGINA" sheetId="6" r:id="rId6"/>
-    <sheet name="AUTORIDADES" sheetId="7" r:id="rId7"/>
-    <sheet name="REDES SOCIALES" sheetId="8" r:id="rId8"/>
+    <sheet name="PROVINCIAS" sheetId="9" r:id="rId4"/>
+    <sheet name="RESTAURANTES" sheetId="4" r:id="rId5"/>
+    <sheet name="HOSPEDAJES" sheetId="5" r:id="rId6"/>
+    <sheet name="PIE DE PAGINA" sheetId="6" r:id="rId7"/>
+    <sheet name="AUTORIDADES" sheetId="7" r:id="rId8"/>
+    <sheet name="REDES SOCIALES" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="726">
   <si>
     <t>Para los mapas se mostrará: Nombre, Dirección, Distrito</t>
   </si>
@@ -1032,9 +1038,6 @@
     <t xml:space="preserve">Jr. Independencia 441 </t>
   </si>
   <si>
-    <t>(-8.110541, -79.028456)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Todos los días de 08:00a.m - 14:30p.m </t>
   </si>
   <si>
@@ -2209,18 +2212,42 @@
   </si>
   <si>
     <t>GMAIL</t>
+  </si>
+  <si>
+    <t>- Bolívar (Provincia de Bolívar) 382 km / 24 horas.</t>
+  </si>
+  <si>
+    <t>- Chepén (Provincia de Chepén) 139 km / 2 horas.</t>
+  </si>
+  <si>
+    <t>- Cascas (Provincia de Gran Chimú) 103 km / 1 hora y 10 minutos.</t>
+  </si>
+  <si>
+    <t>- Julcán (Provincia de Julcán) 105 km / 3 horas.</t>
+  </si>
+  <si>
+    <t>- Otuzco (Provincia de Otuzco) 75 km / 2 horas.</t>
+  </si>
+  <si>
+    <t>- San Pedro de Lloc (Provincia de Pacasmayo) 82 km / 1 hora.</t>
+  </si>
+  <si>
+    <t>- Tayabamba (Provincia de Pataz) 449 km / 24 horas.</t>
+  </si>
+  <si>
+    <t>- Huamachuco (Provincia de Sánchez Carrión) 181 km / 8 horas.</t>
+  </si>
+  <si>
+    <t>- Santiago de Chuco (Provincia de Santiago de Chuco) 183 km / 6 horas.</t>
+  </si>
+  <si>
+    <t>- Virú (Provincia de Virú) 46 km / 45 minutos.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21">
     <font>
       <sz val="11"/>
@@ -2345,14 +2372,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
+      <sz val="11"/>
+      <name val="Verdana"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
+      <sz val="10"/>
+      <color rgb="FF414141"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2434,7 +2462,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2450,29 +2478,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2496,10 +2509,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2519,7 +2532,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2562,12 +2575,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2595,12 +2602,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2658,21 +2659,39 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="7">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal_HOSTAL 1 EST" xfId="4"/>
     <cellStyle name="Normal_HOSTAL 2 EST" xfId="2"/>
+    <cellStyle name="Normal_HOSTAL 3 EST" xfId="5"/>
     <cellStyle name="Normal_HOTEL 2 EST" xfId="3"/>
-    <cellStyle name="Normal_HOSTAL 1 EST" xfId="4"/>
-    <cellStyle name="Comma[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="Currency" xfId="6" builtinId="4"/>
-    <cellStyle name="Normal_HOSTAL 3 EST" xfId="7"/>
-    <cellStyle name="Normal_HOTEL 3 EST" xfId="8"/>
-    <cellStyle name="Currency[0]" xfId="9" builtinId="7"/>
-    <cellStyle name="Comma" xfId="10" builtinId="3"/>
-    <cellStyle name="Percent" xfId="11" builtinId="5"/>
+    <cellStyle name="Normal_HOTEL 3 EST" xfId="6"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2971,6 +2990,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -3003,129 +3023,129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="44"/>
   </sheetPr>
   <dimension ref="A2:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" topLeftCell="H5" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="P5" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="23.7133333333333" customWidth="1"/>
-    <col min="4" max="4" width="29.5733333333333" customWidth="1"/>
-    <col min="5" max="5" width="49.14" customWidth="1"/>
-    <col min="6" max="6" width="180.853333333333" customWidth="1"/>
-    <col min="7" max="7" width="77.2866666666667" customWidth="1"/>
-    <col min="8" max="8" width="79.7133333333333" customWidth="1"/>
-    <col min="9" max="9" width="39.7133333333333" customWidth="1"/>
-    <col min="10" max="10" width="51.8533333333333" customWidth="1"/>
-    <col min="11" max="11" width="24.5733333333333" customWidth="1"/>
-    <col min="12" max="12" width="47.5733333333333" customWidth="1"/>
-    <col min="13" max="13" width="12.2866666666667" customWidth="1"/>
-    <col min="14" max="14" width="39.14" customWidth="1"/>
-    <col min="15" max="15" width="90.4266666666667" customWidth="1"/>
-    <col min="16" max="16" width="255.713333333333" customWidth="1"/>
-    <col min="17" max="17" width="211.286666666667" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="134.286666666667" customWidth="1"/>
+    <col min="2" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="5" max="5" width="49.140625" customWidth="1"/>
+    <col min="6" max="6" width="180.85546875" customWidth="1"/>
+    <col min="7" max="7" width="77.28515625" customWidth="1"/>
+    <col min="8" max="8" width="79.7109375" customWidth="1"/>
+    <col min="9" max="9" width="39.7109375" customWidth="1"/>
+    <col min="10" max="10" width="51.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" customWidth="1"/>
+    <col min="12" max="12" width="47.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="39.140625" customWidth="1"/>
+    <col min="15" max="15" width="90.42578125" customWidth="1"/>
+    <col min="16" max="16" width="255.7109375" customWidth="1"/>
+    <col min="17" max="17" width="211.28515625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="134.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="25.5" spans="3:6">
+    <row r="2" spans="1:18" ht="28.5">
       <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="9"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="54" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="12:14">
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-    </row>
-    <row r="4" spans="3:14">
-      <c r="C4" s="50" t="s">
+    <row r="3" spans="1:18">
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="C4" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-    </row>
-    <row r="5" spans="3:14">
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-    </row>
-    <row r="7" s="18" customFormat="1" spans="1:18">
-      <c r="A7" s="53" t="s">
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+    </row>
+    <row r="7" spans="1:18" s="18" customFormat="1">
+      <c r="A7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="H7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="53" t="s">
+      <c r="I7" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="J7" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="54" t="s">
+      <c r="K7" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="53" t="s">
+      <c r="L7" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="54" t="s">
+      <c r="M7" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="53" t="s">
+      <c r="N7" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="54" t="s">
+      <c r="O7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="54" t="s">
+      <c r="P7" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53" t="s">
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" s="49" customFormat="1" ht="48.75" customHeight="1" spans="1:18">
+    <row r="8" spans="1:18" s="47" customFormat="1" ht="48.75" customHeight="1">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -3159,13 +3179,13 @@
       <c r="K8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="60" t="s">
+      <c r="L8" s="56" t="s">
         <v>31</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="64" t="s">
+      <c r="N8" s="60" t="s">
         <v>33</v>
       </c>
       <c r="O8" s="6" t="s">
@@ -3175,11 +3195,11 @@
         <v>35</v>
       </c>
       <c r="Q8" s="6"/>
-      <c r="R8" s="66" t="s">
+      <c r="R8" s="62" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" s="49" customFormat="1" ht="44.25" customHeight="1" spans="1:18">
+    <row r="9" spans="1:18" s="47" customFormat="1" ht="44.25" customHeight="1">
       <c r="A9" s="6">
         <v>2</v>
       </c>
@@ -3213,27 +3233,27 @@
       <c r="K9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="60" t="s">
+      <c r="L9" s="56" t="s">
         <v>43</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="65" t="s">
+      <c r="N9" s="61" t="s">
         <v>45</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="66" t="s">
+      <c r="P9" s="62" t="s">
         <v>46</v>
       </c>
       <c r="Q9" s="6"/>
-      <c r="R9" s="66" t="s">
+      <c r="R9" s="62" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" s="49" customFormat="1" ht="48" customHeight="1" spans="1:18">
+    <row r="10" spans="1:18" s="47" customFormat="1" ht="48" customHeight="1">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -3261,33 +3281,33 @@
       <c r="I10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="61" t="s">
+      <c r="J10" s="57" t="s">
         <v>53</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="60" t="s">
+      <c r="L10" s="56" t="s">
         <v>54</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="65" t="s">
+      <c r="N10" s="61" t="s">
         <v>55</v>
       </c>
       <c r="O10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P10" s="42" t="s">
+      <c r="P10" s="40" t="s">
         <v>56</v>
       </c>
       <c r="Q10" s="6"/>
-      <c r="R10" s="42" t="s">
+      <c r="R10" s="40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" s="49" customFormat="1" ht="35.25" customHeight="1" spans="1:18">
+    <row r="11" spans="1:18" s="47" customFormat="1" ht="35.25" customHeight="1">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -3315,33 +3335,33 @@
       <c r="I11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="61" t="s">
+      <c r="J11" s="57" t="s">
         <v>53</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="62" t="s">
+      <c r="L11" s="58" t="s">
         <v>62</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="64" t="s">
+      <c r="N11" s="60" t="s">
         <v>63</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P11" s="42" t="s">
+      <c r="P11" s="40" t="s">
         <v>64</v>
       </c>
       <c r="Q11" s="6"/>
-      <c r="R11" s="63" t="s">
+      <c r="R11" s="59" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" s="49" customFormat="1" ht="71.25" customHeight="1" spans="1:18">
+    <row r="12" spans="1:18" s="47" customFormat="1" ht="71.25" customHeight="1">
       <c r="A12" s="6">
         <v>5</v>
       </c>
@@ -3375,27 +3395,27 @@
       <c r="K12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="60" t="s">
+      <c r="L12" s="56" t="s">
         <v>72</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N12" s="65" t="s">
+      <c r="N12" s="61" t="s">
         <v>73</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P12" s="43" t="s">
+      <c r="P12" s="41" t="s">
         <v>74</v>
       </c>
       <c r="Q12" s="6"/>
-      <c r="R12" s="71" t="s">
+      <c r="R12" s="67" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" s="49" customFormat="1" ht="35.25" customHeight="1" spans="1:18">
+    <row r="13" spans="1:18" s="47" customFormat="1" ht="35.25" customHeight="1">
       <c r="A13" s="6">
         <v>6</v>
       </c>
@@ -3420,7 +3440,7 @@
       <c r="H13" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I13" s="63" t="s">
+      <c r="I13" s="59" t="s">
         <v>81</v>
       </c>
       <c r="J13" s="6" t="s">
@@ -3429,27 +3449,27 @@
       <c r="K13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="60" t="s">
+      <c r="L13" s="56" t="s">
         <v>82</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N13" s="65" t="s">
+      <c r="N13" s="61" t="s">
         <v>83</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P13" s="42" t="s">
+      <c r="P13" s="40" t="s">
         <v>84</v>
       </c>
       <c r="Q13" s="6"/>
-      <c r="R13" s="72" t="s">
+      <c r="R13" s="68" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" ht="25.5" spans="1:18">
+    <row r="14" spans="1:18" ht="45">
       <c r="A14" s="21">
         <v>7</v>
       </c>
@@ -3483,27 +3503,27 @@
       <c r="K14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="60" t="s">
+      <c r="L14" s="56" t="s">
         <v>93</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N14" s="64" t="s">
+      <c r="N14" s="60" t="s">
         <v>94</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P14" s="42" t="s">
+      <c r="P14" s="40" t="s">
         <v>95</v>
       </c>
       <c r="Q14" s="2"/>
-      <c r="R14" s="42" t="s">
+      <c r="R14" s="40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" ht="25.5" spans="1:18">
+    <row r="15" spans="1:18" ht="45">
       <c r="A15" s="21">
         <v>8</v>
       </c>
@@ -3537,27 +3557,27 @@
       <c r="K15" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="L15" s="60" t="s">
+      <c r="L15" s="56" t="s">
         <v>105</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="64" t="s">
+      <c r="N15" s="60" t="s">
         <v>106</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P15" s="42" t="s">
+      <c r="P15" s="40" t="s">
         <v>107</v>
       </c>
       <c r="Q15" s="2"/>
-      <c r="R15" s="42" t="s">
+      <c r="R15" s="40" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="16" ht="38.25" spans="1:18">
+    <row r="16" spans="1:18" ht="45">
       <c r="A16" s="21">
         <v>9</v>
       </c>
@@ -3591,27 +3611,27 @@
       <c r="K16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="60" t="s">
+      <c r="L16" s="56" t="s">
         <v>115</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N16" s="65" t="s">
+      <c r="N16" s="61" t="s">
         <v>116</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P16" s="42" t="s">
+      <c r="P16" s="40" t="s">
         <v>117</v>
       </c>
       <c r="Q16" s="2"/>
-      <c r="R16" s="42" t="s">
+      <c r="R16" s="40" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="17" ht="38.25" spans="1:18">
+    <row r="17" spans="1:18" ht="60">
       <c r="A17" s="21">
         <v>10</v>
       </c>
@@ -3645,27 +3665,27 @@
       <c r="K17" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L17" s="60" t="s">
+      <c r="L17" s="56" t="s">
         <v>126</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N17" s="64" t="s">
+      <c r="N17" s="60" t="s">
         <v>127</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P17" s="42" t="s">
+      <c r="P17" s="40" t="s">
         <v>128</v>
       </c>
       <c r="Q17" s="2"/>
-      <c r="R17" s="42" t="s">
+      <c r="R17" s="40" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="18" ht="38.25" spans="1:18">
+    <row r="18" spans="1:18" ht="45">
       <c r="A18" s="21">
         <v>11</v>
       </c>
@@ -3699,27 +3719,27 @@
       <c r="K18" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L18" s="60" t="s">
+      <c r="L18" s="56" t="s">
         <v>135</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N18" s="64" t="s">
+      <c r="N18" s="60" t="s">
         <v>136</v>
       </c>
       <c r="O18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="42" t="s">
+      <c r="P18" s="40" t="s">
         <v>137</v>
       </c>
       <c r="Q18" s="2"/>
-      <c r="R18" s="42" t="s">
+      <c r="R18" s="40" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="19" ht="38.25" spans="1:18">
+    <row r="19" spans="1:18" ht="45">
       <c r="A19" s="6">
         <v>12</v>
       </c>
@@ -3753,27 +3773,27 @@
       <c r="K19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="60" t="s">
+      <c r="L19" s="56" t="s">
         <v>142</v>
       </c>
       <c r="M19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N19" s="64" t="s">
+      <c r="N19" s="60" t="s">
         <v>143</v>
       </c>
       <c r="O19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P19" s="42" t="s">
+      <c r="P19" s="40" t="s">
         <v>144</v>
       </c>
       <c r="Q19" s="2"/>
-      <c r="R19" s="42" t="s">
+      <c r="R19" s="40" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="20" ht="38.25" spans="1:18">
+    <row r="20" spans="1:18" ht="45">
       <c r="A20" s="6">
         <v>13</v>
       </c>
@@ -3807,27 +3827,27 @@
       <c r="K20" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L20" s="60" t="s">
+      <c r="L20" s="56" t="s">
         <v>153</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N20" s="64" t="s">
+      <c r="N20" s="60" t="s">
         <v>154</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P20" s="42" t="s">
+      <c r="P20" s="40" t="s">
         <v>155</v>
       </c>
       <c r="Q20" s="2"/>
-      <c r="R20" s="42" t="s">
+      <c r="R20" s="40" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="21" ht="38.25" spans="1:18">
+    <row r="21" spans="1:18" ht="45">
       <c r="A21" s="6">
         <v>14</v>
       </c>
@@ -3861,27 +3881,27 @@
       <c r="K21" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="L21" s="60" t="s">
+      <c r="L21" s="56" t="s">
         <v>162</v>
       </c>
       <c r="M21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="64" t="s">
+      <c r="N21" s="60" t="s">
         <v>163</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="42" t="s">
+      <c r="P21" s="40" t="s">
         <v>164</v>
       </c>
       <c r="Q21" s="2"/>
-      <c r="R21" s="42" t="s">
+      <c r="R21" s="40" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="22" ht="25.5" spans="1:18">
+    <row r="22" spans="1:18" ht="30">
       <c r="A22" s="6">
         <v>15</v>
       </c>
@@ -3915,27 +3935,27 @@
       <c r="K22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L22" s="60" t="s">
+      <c r="L22" s="56" t="s">
         <v>172</v>
       </c>
       <c r="M22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N22" s="64" t="s">
+      <c r="N22" s="60" t="s">
         <v>173</v>
       </c>
       <c r="O22" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="P22" s="42" t="s">
+      <c r="P22" s="40" t="s">
         <v>174</v>
       </c>
       <c r="Q22" s="2"/>
-      <c r="R22" s="42" t="s">
+      <c r="R22" s="40" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="23" ht="38.25" spans="1:18">
+    <row r="23" spans="1:18" ht="60">
       <c r="A23" s="6">
         <v>16</v>
       </c>
@@ -3969,27 +3989,27 @@
       <c r="K23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L23" s="60" t="s">
+      <c r="L23" s="56" t="s">
         <v>181</v>
       </c>
       <c r="M23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N23" s="64" t="s">
+      <c r="N23" s="60" t="s">
         <v>163</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P23" s="42" t="s">
+      <c r="P23" s="40" t="s">
         <v>182</v>
       </c>
       <c r="Q23" s="2"/>
-      <c r="R23" s="42" t="s">
+      <c r="R23" s="40" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="24" ht="51" spans="1:18">
+    <row r="24" spans="1:18" ht="60">
       <c r="A24" s="6">
         <v>17</v>
       </c>
@@ -4023,27 +4043,27 @@
       <c r="K24" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="60" t="s">
+      <c r="L24" s="56" t="s">
         <v>189</v>
       </c>
       <c r="M24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N24" s="64" t="s">
+      <c r="N24" s="60" t="s">
         <v>190</v>
       </c>
       <c r="O24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P24" s="42" t="s">
+      <c r="P24" s="40" t="s">
         <v>191</v>
       </c>
       <c r="Q24" s="2"/>
-      <c r="R24" s="42" t="s">
+      <c r="R24" s="40" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="25" ht="38.25" spans="1:18">
+    <row r="25" spans="1:18" ht="60">
       <c r="A25" s="6">
         <v>18</v>
       </c>
@@ -4077,27 +4097,27 @@
       <c r="K25" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="L25" s="60" t="s">
+      <c r="L25" s="56" t="s">
         <v>201</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N25" s="64" t="s">
+      <c r="N25" s="60" t="s">
         <v>202</v>
       </c>
       <c r="O25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P25" s="42" t="s">
+      <c r="P25" s="40" t="s">
         <v>203</v>
       </c>
       <c r="Q25" s="2"/>
-      <c r="R25" s="42" t="s">
+      <c r="R25" s="40" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="26" ht="38.25" spans="1:18">
+    <row r="26" spans="1:18" ht="45">
       <c r="A26" s="6">
         <v>19</v>
       </c>
@@ -4131,27 +4151,27 @@
       <c r="K26" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="L26" s="60" t="s">
+      <c r="L26" s="56" t="s">
         <v>209</v>
       </c>
       <c r="M26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N26" s="64" t="s">
+      <c r="N26" s="60" t="s">
         <v>210</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P26" s="42" t="s">
+      <c r="P26" s="40" t="s">
         <v>211</v>
       </c>
       <c r="Q26" s="2"/>
-      <c r="R26" s="42" t="s">
+      <c r="R26" s="40" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="27" ht="66.75" customHeight="1" spans="1:18">
+    <row r="27" spans="1:18" ht="66.75" customHeight="1">
       <c r="A27" s="6">
         <v>20</v>
       </c>
@@ -4185,43 +4205,43 @@
       <c r="K27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L27" s="60" t="s">
+      <c r="L27" s="56" t="s">
         <v>218</v>
       </c>
       <c r="M27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N27" s="64" t="s">
+      <c r="N27" s="60" t="s">
         <v>219</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P27" s="42" t="s">
+      <c r="P27" s="40" t="s">
         <v>220</v>
       </c>
       <c r="Q27" s="2"/>
-      <c r="R27" s="42" t="s">
+      <c r="R27" s="40" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="28" ht="51" spans="1:18">
-      <c r="A28" s="49">
+    <row r="28" spans="1:18" ht="60">
+      <c r="A28" s="47">
         <v>21</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="E28" s="55" t="s">
+      <c r="E28" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="F28" s="55" t="s">
+      <c r="F28" s="51" t="s">
         <v>225</v>
       </c>
       <c r="G28" s="6" t="s">
@@ -4230,104 +4250,104 @@
       <c r="H28" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="I28" s="55" t="s">
+      <c r="I28" s="51" t="s">
         <v>103</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="K28" s="55" t="s">
+      <c r="K28" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="L28" s="60" t="s">
+      <c r="L28" s="56" t="s">
         <v>229</v>
       </c>
-      <c r="M28" s="55" t="s">
+      <c r="M28" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="N28" s="67" t="s">
+      <c r="N28" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="O28" s="55" t="s">
+      <c r="O28" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="P28" s="68" t="s">
+      <c r="P28" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="R28" s="44" t="s">
+      <c r="R28" s="42" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="29" ht="38.25" spans="1:18">
-      <c r="A29" s="49">
+    <row r="29" spans="1:18" ht="45">
+      <c r="A29" s="47">
         <v>22</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="F29" s="55" t="s">
+      <c r="F29" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="G29" s="55" t="s">
+      <c r="G29" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="H29" s="55" t="s">
+      <c r="H29" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="I29" s="55" t="s">
+      <c r="I29" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="J29" s="55" t="s">
+      <c r="J29" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="K29" s="55" t="s">
+      <c r="K29" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="L29" s="60" t="s">
+      <c r="L29" s="56" t="s">
         <v>237</v>
       </c>
-      <c r="M29" s="55" t="s">
+      <c r="M29" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="N29" s="67" t="s">
+      <c r="N29" s="63" t="s">
         <v>238</v>
       </c>
-      <c r="O29" s="55" t="s">
+      <c r="O29" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="P29" s="68" t="s">
+      <c r="P29" s="64" t="s">
         <v>239</v>
       </c>
-      <c r="R29" s="44" t="s">
+      <c r="R29" s="42" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="30" ht="25.5" spans="1:18">
-      <c r="A30" s="49">
+    <row r="30" spans="1:18" ht="30">
+      <c r="A30" s="47">
         <v>23</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="55" t="s">
+      <c r="D30" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="E30" s="55" t="s">
+      <c r="E30" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="F30" s="55" t="s">
+      <c r="F30" s="51" t="s">
         <v>242</v>
       </c>
       <c r="G30" s="6" t="s">
@@ -4336,51 +4356,51 @@
       <c r="H30" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="I30" s="55" t="s">
+      <c r="I30" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="J30" s="55" t="s">
+      <c r="J30" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="K30" s="55" t="s">
+      <c r="K30" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="L30" s="60" t="s">
+      <c r="L30" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="M30" s="55" t="s">
+      <c r="M30" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="N30" s="67" t="s">
+      <c r="N30" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="O30" s="55" t="s">
+      <c r="O30" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="P30" s="44" t="s">
+      <c r="P30" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="R30" s="44" t="s">
+      <c r="R30" s="42" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="31" ht="38.25" spans="1:18">
-      <c r="A31" s="49">
+    <row r="31" spans="1:18" ht="60">
+      <c r="A31" s="47">
         <v>24</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="D31" s="55" t="s">
+      <c r="D31" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="E31" s="55" t="s">
+      <c r="E31" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="F31" s="55" t="s">
+      <c r="F31" s="51" t="s">
         <v>248</v>
       </c>
       <c r="G31" s="6" t="s">
@@ -4389,104 +4409,104 @@
       <c r="H31" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="I31" s="55" t="s">
+      <c r="I31" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="J31" s="55" t="s">
+      <c r="J31" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="K31" s="55" t="s">
+      <c r="K31" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="L31" s="60" t="s">
+      <c r="L31" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="M31" s="55" t="s">
+      <c r="M31" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="N31" s="67" t="s">
+      <c r="N31" s="63" t="s">
         <v>251</v>
       </c>
-      <c r="O31" s="55" t="s">
+      <c r="O31" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="P31" s="68" t="s">
+      <c r="P31" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="R31" s="44" t="s">
+      <c r="R31" s="42" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="32" ht="38.25" spans="1:18">
-      <c r="A32" s="56">
+    <row r="32" spans="1:18" ht="45">
+      <c r="A32" s="52">
         <v>25</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="D32" s="55" t="s">
+      <c r="D32" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="E32" s="55" t="s">
+      <c r="E32" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="F32" s="55" t="s">
+      <c r="F32" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="G32" s="55" t="s">
+      <c r="G32" s="51" t="s">
         <v>255</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="I32" s="55" t="s">
+      <c r="I32" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="J32" s="55" t="s">
+      <c r="J32" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="K32" s="55" t="s">
+      <c r="K32" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="L32" s="60" t="s">
+      <c r="L32" s="56" t="s">
         <v>257</v>
       </c>
-      <c r="M32" s="55" t="s">
+      <c r="M32" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="N32" s="69" t="s">
+      <c r="N32" s="65" t="s">
         <v>258</v>
       </c>
-      <c r="O32" s="55" t="s">
+      <c r="O32" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="P32" s="68" t="s">
+      <c r="P32" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="R32" s="44" t="s">
+      <c r="R32" s="42" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="33" ht="38.25" spans="1:18">
-      <c r="A33" s="56">
+    <row r="33" spans="1:18" ht="60">
+      <c r="A33" s="52">
         <v>26</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="D33" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="F33" s="55" t="s">
+      <c r="F33" s="51" t="s">
         <v>261</v>
       </c>
       <c r="G33" s="6" t="s">
@@ -4495,45 +4515,45 @@
       <c r="H33" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="I33" s="55" t="s">
+      <c r="I33" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="J33" s="55" t="s">
+      <c r="J33" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="K33" s="55" t="s">
+      <c r="K33" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="L33" s="60" t="s">
+      <c r="L33" s="56" t="s">
         <v>265</v>
       </c>
-      <c r="M33" s="55" t="s">
+      <c r="M33" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="N33" s="67" t="s">
+      <c r="N33" s="63" t="s">
         <v>266</v>
       </c>
-      <c r="O33" s="55" t="s">
+      <c r="O33" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="P33" s="70" t="s">
+      <c r="P33" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="R33" s="44" t="s">
+      <c r="R33" s="42" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="56"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="56"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="56"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="56"/>
+    <row r="34" spans="1:18">
+      <c r="A34" s="52"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="52"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="52"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4541,32 +4561,30 @@
     <mergeCell ref="D4:D5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="N8" r:id="rId1" display="Jr. Torre Tagle 178"/>
+    <hyperlink ref="N8" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="12.75" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.4266666666667" customWidth="1"/>
-    <col min="3" max="3" width="50.7133333333333" customWidth="1"/>
-    <col min="4" max="4" width="30.5733333333333" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="21" spans="3:3">
-      <c r="C2" s="46" t="s">
+    <row r="2" spans="1:4" ht="23.25">
+      <c r="C2" s="44" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4594,7 +4612,7 @@
       <c r="C5" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="45" t="s">
         <v>274</v>
       </c>
     </row>
@@ -4608,7 +4626,7 @@
       <c r="C6" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="45" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4622,7 +4640,7 @@
       <c r="C7" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="45" t="s">
         <v>279</v>
       </c>
     </row>
@@ -4636,7 +4654,7 @@
       <c r="C8" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="45" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4650,7 +4668,7 @@
       <c r="C9" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="45" t="s">
         <v>283</v>
       </c>
     </row>
@@ -4664,7 +4682,7 @@
       <c r="C10" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="45" t="s">
         <v>285</v>
       </c>
     </row>
@@ -4678,7 +4696,7 @@
       <c r="C11" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="45" t="s">
         <v>287</v>
       </c>
     </row>
@@ -4692,7 +4710,7 @@
       <c r="C12" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="45" t="s">
         <v>289</v>
       </c>
     </row>
@@ -4706,7 +4724,7 @@
       <c r="C13" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="45" t="s">
         <v>292</v>
       </c>
     </row>
@@ -4720,7 +4738,7 @@
       <c r="C14" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="45" t="s">
         <v>294</v>
       </c>
     </row>
@@ -4734,7 +4752,7 @@
       <c r="C15" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="45" t="s">
         <v>296</v>
       </c>
     </row>
@@ -4748,7 +4766,7 @@
       <c r="C16" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="45" t="s">
         <v>298</v>
       </c>
     </row>
@@ -4762,7 +4780,7 @@
       <c r="C17" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="45" t="s">
         <v>300</v>
       </c>
     </row>
@@ -4776,7 +4794,7 @@
       <c r="C18" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="45" t="s">
         <v>302</v>
       </c>
     </row>
@@ -4790,7 +4808,7 @@
       <c r="C19" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="45" t="s">
         <v>305</v>
       </c>
     </row>
@@ -4804,7 +4822,7 @@
       <c r="C20" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="45" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4818,111 +4836,109 @@
       <c r="C21" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="45" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="22" spans="4:4">
-      <c r="D22" s="48"/>
-    </row>
-    <row r="23" spans="4:4">
-      <c r="D23" s="48"/>
-    </row>
-    <row r="24" spans="4:4">
-      <c r="D24" s="48"/>
-    </row>
-    <row r="25" spans="4:4">
-      <c r="D25" s="48"/>
-    </row>
-    <row r="26" spans="4:4">
-      <c r="D26" s="48"/>
-    </row>
-    <row r="27" spans="4:4">
-      <c r="D27" s="48"/>
-    </row>
-    <row r="28" spans="4:4">
-      <c r="D28" s="48"/>
-    </row>
-    <row r="29" spans="4:4">
-      <c r="D29" s="48"/>
-    </row>
-    <row r="30" spans="4:4">
-      <c r="D30" s="48"/>
-    </row>
-    <row r="31" spans="4:4">
-      <c r="D31" s="48"/>
-    </row>
-    <row r="32" spans="4:4">
-      <c r="D32" s="48"/>
+    <row r="22" spans="1:4">
+      <c r="D22" s="46"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="D23" s="46"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="D24" s="46"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="D25" s="46"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="D26" s="46"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="D27" s="46"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="D28" s="46"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="D29" s="46"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="D30" s="46"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="D31" s="46"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="D32" s="46"/>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="48"/>
+      <c r="D33" s="46"/>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="48"/>
+      <c r="D34" s="46"/>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="48"/>
+      <c r="D35" s="46"/>
     </row>
     <row r="36" spans="4:4">
-      <c r="D36" s="48"/>
+      <c r="D36" s="46"/>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="48"/>
+      <c r="D37" s="46"/>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="48"/>
+      <c r="D38" s="46"/>
     </row>
     <row r="39" spans="4:4">
-      <c r="D39" s="48"/>
+      <c r="D39" s="46"/>
     </row>
     <row r="40" spans="4:4">
-      <c r="D40" s="48"/>
+      <c r="D40" s="46"/>
     </row>
     <row r="41" spans="4:4">
-      <c r="D41" s="48"/>
+      <c r="D41" s="46"/>
     </row>
     <row r="42" spans="4:4">
-      <c r="D42" s="48"/>
+      <c r="D42" s="46"/>
     </row>
     <row r="43" spans="4:4">
-      <c r="D43" s="48"/>
+      <c r="D43" s="46"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AS40"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="E40" sqref="E9:E40"/>
+    <sheetView topLeftCell="E7" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="19.2866666666667" customWidth="1"/>
-    <col min="5" max="5" width="55.14" customWidth="1"/>
-    <col min="6" max="6" width="60.8533333333333" customWidth="1"/>
-    <col min="7" max="7" width="101.573333333333" customWidth="1"/>
-    <col min="8" max="9" width="60.7133333333333" customWidth="1"/>
-    <col min="10" max="10" width="99.14" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="55.140625" customWidth="1"/>
+    <col min="6" max="6" width="60.85546875" customWidth="1"/>
+    <col min="7" max="7" width="101.5703125" customWidth="1"/>
+    <col min="8" max="9" width="60.7109375" customWidth="1"/>
+    <col min="10" max="10" width="99.140625" customWidth="1"/>
     <col min="11" max="11" width="60" customWidth="1"/>
-    <col min="12" max="12" width="255.713333333333" customWidth="1"/>
+    <col min="12" max="12" width="255.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="23.25" spans="6:6">
+    <row r="2" spans="1:12" ht="26.25">
       <c r="F2" s="33" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="5:9">
+    <row r="4" spans="1:12">
       <c r="E4" s="9" t="s">
         <v>311</v>
       </c>
@@ -4932,28 +4948,28 @@
       </c>
       <c r="I4" s="34"/>
     </row>
-    <row r="5" spans="5:9">
-      <c r="E5" s="35" t="s">
+    <row r="5" spans="1:12">
+      <c r="E5" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="72" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
     </row>
-    <row r="6" spans="5:9">
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
+    <row r="6" spans="1:12">
+      <c r="E6" s="71"/>
+      <c r="F6" s="72"/>
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
     </row>
-    <row r="7" spans="7:7">
-      <c r="G7" s="37" t="s">
+    <row r="7" spans="1:12">
+      <c r="G7" s="35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="8" s="28" customFormat="1" spans="1:12">
+    <row r="8" spans="1:12" s="28" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -4966,7 +4982,7 @@
       <c r="D8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="29" t="s">
@@ -4975,23 +4991,23 @@
       <c r="G8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="37" t="s">
         <v>316</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="J8" s="38" t="s">
+      <c r="J8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="38" t="s">
+      <c r="K8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="38" t="s">
+      <c r="L8" s="36" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="9" ht="25.5" spans="1:12">
+    <row r="9" spans="1:12" ht="30">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -5016,20 +5032,20 @@
       <c r="H9" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L9" s="42" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="10" ht="25.5" spans="1:12">
+      <c r="L9" s="40" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30">
       <c r="A10" s="21">
         <v>2</v>
       </c>
@@ -5043,31 +5059,31 @@
         <v>272</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>322</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L10" s="42" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5" spans="1:12">
+      <c r="L10" s="40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -5081,31 +5097,31 @@
         <v>272</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>322</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L11" s="42" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="12" ht="38.25" spans="1:12">
+      <c r="L11" s="40" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="45">
       <c r="A12" s="21">
         <v>4</v>
       </c>
@@ -5119,31 +5135,31 @@
         <v>272</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>340</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>322</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L12" s="42" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="13" ht="25.5" spans="1:12">
+      <c r="L12" s="40" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30">
       <c r="A13" s="21">
         <v>5</v>
       </c>
@@ -5157,31 +5173,31 @@
         <v>272</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>322</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L13" s="42" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="14" ht="25.5" spans="1:12">
+      <c r="L13" s="40" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30">
       <c r="A14" s="21">
         <v>6</v>
       </c>
@@ -5195,31 +5211,31 @@
         <v>272</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L14" s="42" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="15" ht="25.5" spans="1:12">
+      <c r="L14" s="40" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30">
       <c r="A15" s="21">
         <v>7</v>
       </c>
@@ -5233,36 +5249,36 @@
         <v>272</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>163</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L15" s="42" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="16" ht="25.5" spans="1:12">
+      <c r="L15" s="40" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30">
       <c r="A16" s="21">
         <v>8</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>272</v>
@@ -5271,36 +5287,36 @@
         <v>272</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="40" t="s">
         <v>370</v>
       </c>
-      <c r="L16" s="42" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="17" ht="25.5" spans="1:12">
+    </row>
+    <row r="17" spans="1:45" ht="30">
       <c r="A17" s="21">
         <v>9</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C17" s="30" t="s">
         <v>272</v>
@@ -5309,36 +5325,36 @@
         <v>272</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="40" t="s">
         <v>378</v>
       </c>
-      <c r="L17" s="42" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+    </row>
+    <row r="18" spans="1:45">
       <c r="A18" s="21">
         <v>10</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>272</v>
@@ -5347,36 +5363,36 @@
         <v>272</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="40" t="s">
         <v>386</v>
       </c>
-      <c r="L18" s="42" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="19" ht="25.5" spans="1:12">
+    </row>
+    <row r="19" spans="1:45" ht="30">
       <c r="A19" s="21">
         <v>11</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>272</v>
@@ -5385,36 +5401,36 @@
         <v>272</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="40" t="s">
         <v>394</v>
       </c>
-      <c r="L19" s="42" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="20" ht="25.5" spans="1:12">
+    </row>
+    <row r="20" spans="1:45" ht="30">
       <c r="A20" s="21">
         <v>12</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>272</v>
@@ -5423,36 +5439,36 @@
         <v>272</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>163</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" s="40" t="s">
         <v>401</v>
       </c>
-      <c r="L20" s="42" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="21" ht="25.5" spans="1:12">
+    </row>
+    <row r="21" spans="1:45" ht="30">
       <c r="A21" s="21">
         <v>13</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C21" s="30" t="s">
         <v>272</v>
@@ -5461,36 +5477,36 @@
         <v>272</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="40" t="s">
         <v>409</v>
       </c>
-      <c r="L21" s="42" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+    </row>
+    <row r="22" spans="1:45">
       <c r="A22" s="21">
         <v>14</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C22" s="30" t="s">
         <v>167</v>
@@ -5499,36 +5515,36 @@
         <v>167</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="L22" s="40" t="s">
         <v>417</v>
       </c>
-      <c r="L22" s="42" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="23" ht="25.5" spans="1:45">
+    </row>
+    <row r="23" spans="1:45" ht="45">
       <c r="A23" s="21">
         <v>15</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C23" s="30" t="s">
         <v>272</v>
@@ -5537,69 +5553,69 @@
         <v>272</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="40" t="s">
         <v>425</v>
       </c>
-      <c r="L23" s="42" t="s">
-        <v>426</v>
-      </c>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="45"/>
-      <c r="AB23" s="45"/>
-      <c r="AC23" s="45"/>
-      <c r="AD23" s="45"/>
-      <c r="AE23" s="45"/>
-      <c r="AF23" s="45"/>
-      <c r="AG23" s="45"/>
-      <c r="AH23" s="45"/>
-      <c r="AI23" s="45"/>
-      <c r="AJ23" s="45"/>
-      <c r="AK23" s="45"/>
-      <c r="AL23" s="45"/>
-      <c r="AM23" s="45"/>
-      <c r="AN23" s="45"/>
-      <c r="AO23" s="45"/>
-      <c r="AP23" s="45"/>
-      <c r="AQ23" s="45"/>
-      <c r="AR23" s="45"/>
-      <c r="AS23" s="45"/>
-    </row>
-    <row r="24" ht="25.5" spans="1:12">
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="43"/>
+      <c r="AC23" s="43"/>
+      <c r="AD23" s="43"/>
+      <c r="AE23" s="43"/>
+      <c r="AF23" s="43"/>
+      <c r="AG23" s="43"/>
+      <c r="AH23" s="43"/>
+      <c r="AI23" s="43"/>
+      <c r="AJ23" s="43"/>
+      <c r="AK23" s="43"/>
+      <c r="AL23" s="43"/>
+      <c r="AM23" s="43"/>
+      <c r="AN23" s="43"/>
+      <c r="AO23" s="43"/>
+      <c r="AP23" s="43"/>
+      <c r="AQ23" s="43"/>
+      <c r="AR23" s="43"/>
+      <c r="AS23" s="43"/>
+    </row>
+    <row r="24" spans="1:45" ht="45">
       <c r="A24" s="21">
         <v>16</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>272</v>
@@ -5608,36 +5624,36 @@
         <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="L24" s="43" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+    </row>
+    <row r="25" spans="1:45">
       <c r="A25" s="21">
         <v>17</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>232</v>
@@ -5646,36 +5662,36 @@
         <v>184</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>437</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L25" s="42" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="26" ht="38.25" spans="1:12">
+      <c r="L25" s="40" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" ht="45">
       <c r="A26" s="21">
         <v>18</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>232</v>
@@ -5684,36 +5700,36 @@
         <v>253</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="L26" s="40" t="s">
         <v>443</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="L26" s="42" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="27" ht="38.25" spans="1:12">
+    </row>
+    <row r="27" spans="1:45" ht="45">
       <c r="A27" s="21">
         <v>19</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C27" s="30" t="s">
         <v>272</v>
@@ -5722,36 +5738,36 @@
         <v>272</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>163</v>
       </c>
       <c r="H27" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L27" s="42" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="28" ht="25.5" spans="1:12">
+      <c r="L27" s="40" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45" ht="30">
       <c r="A28" s="21">
         <v>20</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C28" s="30" t="s">
         <v>272</v>
@@ -5760,36 +5776,36 @@
         <v>272</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>452</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>163</v>
       </c>
       <c r="H28" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="J28" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L28" s="42" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="29" ht="25.5" spans="1:12">
+      <c r="L28" s="40" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" ht="30">
       <c r="A29" s="21">
         <v>21</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C29" s="30" t="s">
         <v>272</v>
@@ -5798,36 +5814,36 @@
         <v>272</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>457</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>163</v>
       </c>
       <c r="H29" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L29" s="42" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="30" ht="25.5" spans="1:12">
+      <c r="L29" s="40" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45" ht="45">
       <c r="A30" s="21">
         <v>22</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C30" s="30" t="s">
         <v>272</v>
@@ -5836,36 +5852,36 @@
         <v>272</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>163</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L30" s="42" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="L30" s="40" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45">
       <c r="A31" s="21">
         <v>23</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>272</v>
@@ -5874,36 +5890,36 @@
         <v>272</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>163</v>
       </c>
       <c r="H31" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>470</v>
-      </c>
       <c r="J31" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L31" s="42" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="32" ht="25.5" spans="1:12">
+      <c r="L31" s="40" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45" ht="30">
       <c r="A32" s="21">
         <v>24</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C32" s="30" t="s">
         <v>232</v>
@@ -5912,36 +5928,36 @@
         <v>184</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>473</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>163</v>
       </c>
       <c r="H32" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>475</v>
-      </c>
       <c r="J32" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L32" s="42" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="33" ht="25.5" spans="1:12">
+      <c r="L32" s="40" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="30">
       <c r="A33" s="21">
         <v>25</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C33" s="30" t="s">
         <v>232</v>
@@ -5950,36 +5966,36 @@
         <v>253</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>163</v>
       </c>
       <c r="H33" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>481</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L33" s="42" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="34" ht="25.5" spans="1:12">
+      <c r="L33" s="40" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="45">
       <c r="A34" s="21">
         <v>26</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C34" s="30" t="s">
         <v>272</v>
@@ -5988,36 +6004,36 @@
         <v>272</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>163</v>
       </c>
       <c r="H34" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>486</v>
-      </c>
       <c r="J34" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L34" s="42" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="35" ht="25.5" spans="1:12">
+      <c r="L34" s="40" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="45">
       <c r="A35" s="21">
         <v>27</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C35" s="30" t="s">
         <v>272</v>
@@ -6026,36 +6042,36 @@
         <v>272</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>163</v>
       </c>
       <c r="H35" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>492</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L35" s="42" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="36" ht="25.5" spans="1:12">
+      <c r="L35" s="40" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="30">
       <c r="A36" s="21">
         <v>29</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C36" s="30" t="s">
         <v>272</v>
@@ -6064,36 +6080,36 @@
         <v>272</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>163</v>
       </c>
       <c r="H36" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>497</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L36" s="42" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="37" ht="25.5" spans="1:12">
+      <c r="L36" s="40" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="30">
       <c r="A37" s="21">
         <v>30</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C37" s="30" t="s">
         <v>272</v>
@@ -6102,36 +6118,36 @@
         <v>272</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>163</v>
       </c>
       <c r="H37" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>502</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L37" s="42" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="38" ht="25.5" spans="1:12">
+      <c r="L37" s="40" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="30">
       <c r="A38" s="21">
         <v>31</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C38" s="30" t="s">
         <v>272</v>
@@ -6140,36 +6156,36 @@
         <v>272</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>505</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>163</v>
       </c>
       <c r="H38" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L38" s="42" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="39" ht="25.5" spans="1:12">
+      <c r="L38" s="40" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="30">
       <c r="A39" s="21">
         <v>32</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C39" s="30" t="s">
         <v>272</v>
@@ -6178,36 +6194,36 @@
         <v>272</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>163</v>
       </c>
       <c r="H39" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>513</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>514</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L39" s="42" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="40" ht="28.5" customHeight="1" spans="1:12">
+      <c r="L39" s="40" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="28.5" customHeight="1">
       <c r="A40" s="21">
         <v>32</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>272</v>
@@ -6215,29 +6231,29 @@
       <c r="D40" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="E40" s="40" t="s">
+      <c r="E40" s="38" t="s">
+        <v>515</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="G40" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="H40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="K40" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="L40" s="42" t="s">
         <v>520</v>
-      </c>
-      <c r="K40" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="L40" s="44" t="s">
-        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -6245,752 +6261,818 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A2:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="12.75" outlineLevelCol="5"/>
-  <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="17.2866666666667" customWidth="1"/>
-    <col min="4" max="4" width="33.14" customWidth="1"/>
-    <col min="5" max="5" width="56.14" customWidth="1"/>
-    <col min="6" max="6" width="21.4266666666667" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" ht="23.25" spans="4:4">
-      <c r="D2" s="25" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="3" spans="4:5">
-      <c r="D3" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="7" ht="27" customHeight="1" spans="1:6">
-      <c r="A7" s="6">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>533</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="6">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>536</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="6">
-        <v>5</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>539</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>540</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="10" ht="25.5" spans="1:6">
-      <c r="A10" s="6">
-        <v>6</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>542</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>543</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="6">
-        <v>7</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="6">
-        <v>8</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>549</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="6">
-        <v>9</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>553</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="6">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6">
-      <c r="F17" s="7" t="s">
-        <v>559</v>
+    <row r="1" spans="1:1">
+      <c r="A1" s="73">
+        <f>H3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="73" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="73" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="73" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="73" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="73" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="73" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="73" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="73" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="73" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="73" t="s">
+        <v>725</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A2:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A9" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.5733333333333" customWidth="1"/>
-    <col min="3" max="3" width="16.4266666666667" customWidth="1"/>
-    <col min="4" max="4" width="26.5733333333333" customWidth="1"/>
-    <col min="5" max="5" width="46" customWidth="1"/>
-    <col min="6" max="6" width="19.4266666666667" customWidth="1"/>
-    <col min="7" max="7" width="21.4266666666667" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1"/>
+    <col min="5" max="5" width="56.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="21" spans="5:5">
-      <c r="E2" s="17" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="3" spans="4:6">
+    <row r="2" spans="1:6" ht="26.25">
+      <c r="D2" s="25" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="D3" s="9" t="s">
-        <v>561</v>
+        <v>522</v>
       </c>
       <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27" customHeight="1">
+      <c r="A7" s="6">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>538</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>539</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="6">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="B10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="10">
-        <v>1</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B12" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>548</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>552</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="10">
-        <v>2</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="10">
-        <v>3</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>573</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="10">
-        <v>4</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>576</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="10">
-        <v>5</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>580</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="10">
-        <v>6</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>584</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>585</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>586</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="10">
-        <v>7</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="16" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="10">
-        <v>9</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>592</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="10">
-        <v>11</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>596</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>597</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="10">
-        <v>14</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>601</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>602</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="10">
-        <v>15</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>604</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>606</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="16">
-        <v>16</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>551</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>551</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>608</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>609</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>610</v>
-      </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="16">
-        <v>17</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="F17" s="22">
-        <v>948442114</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="16">
-        <v>18</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>595</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>613</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>614</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>598</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="16">
-        <v>19</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>595</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>615</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>617</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="16">
-        <v>20</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>620</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="16">
-        <v>21</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>622</v>
-      </c>
-      <c r="F21" s="21">
-        <v>996661116</v>
-      </c>
-      <c r="G21" s="2"/>
+      <c r="C14" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="7" t="s">
+        <v>558</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="46" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="23.25">
+      <c r="E2" s="17" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="D3" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="10">
+        <v>7</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="16" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="10">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="10">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="10">
+        <v>14</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="10">
+        <v>15</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>608</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="16">
+        <v>17</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="F17" s="22">
+        <v>948442114</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="16">
+        <v>18</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>613</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="16">
+        <v>19</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>616</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="16">
+        <v>20</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>618</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>619</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="16">
+        <v>21</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>621</v>
+      </c>
+      <c r="F21" s="21">
+        <v>996661116</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="2:10">
       <c r="B3" t="s">
+        <v>622</v>
+      </c>
+      <c r="H3" t="s">
         <v>623</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>624</v>
       </c>
-      <c r="J3" t="s">
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+    <row r="7" spans="2:10">
+      <c r="B7" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" t="s">
+      <c r="G7" t="s">
         <v>627</v>
       </c>
-      <c r="G7" t="s">
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>629</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>630</v>
-      </c>
-      <c r="G8" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="10" spans="2:10">
@@ -7001,24 +7083,24 @@
         <v>232</v>
       </c>
       <c r="G10" t="s">
+        <v>631</v>
+      </c>
+      <c r="J10" t="s">
         <v>632</v>
-      </c>
-      <c r="J10" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" t="s">
+        <v>633</v>
+      </c>
+      <c r="D11" t="s">
         <v>634</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
         <v>635</v>
       </c>
-      <c r="G11" t="s">
+      <c r="J11" t="s">
         <v>636</v>
-      </c>
-      <c r="J11" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="12" spans="2:10">
@@ -7026,38 +7108,38 @@
         <v>110</v>
       </c>
       <c r="D12" t="s">
+        <v>637</v>
+      </c>
+      <c r="G12" t="s">
         <v>638</v>
       </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
         <v>639</v>
-      </c>
-      <c r="J12" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" t="s">
+        <v>640</v>
+      </c>
+      <c r="D13" t="s">
         <v>641</v>
       </c>
-      <c r="D13" t="s">
+      <c r="G13" t="s">
         <v>642</v>
       </c>
-      <c r="G13" t="s">
+      <c r="J13" t="s">
         <v>643</v>
       </c>
-      <c r="J13" t="s">
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" t="s">
         <v>644</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" t="s">
-        <v>645</v>
       </c>
       <c r="D14" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1" spans="2:4">
+    <row r="15" spans="2:10" ht="15.75" customHeight="1">
       <c r="B15" t="s">
         <v>167</v>
       </c>
@@ -7065,439 +7147,435 @@
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:8">
       <c r="B17" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="F19" t="s">
         <v>647</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>648</v>
       </c>
-      <c r="H19" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="20" spans="6:6">
+    </row>
+    <row r="20" spans="2:8">
       <c r="F20">
         <v>2015</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1" display="descubrelalibertad@descubrelalibertad.com"/>
+    <hyperlink ref="B19" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:D27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="12.75" outlineLevelCol="3"/>
-  <cols>
-    <col min="2" max="2" width="43.4266666666667" customWidth="1"/>
-    <col min="3" max="3" width="58.14" customWidth="1"/>
-    <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="10.2866666666667" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18.75" spans="3:3">
-      <c r="C1" s="4" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="6">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="6">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="6">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>666</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="7">
-        <v>7</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="7">
-        <v>8</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="7">
-        <v>9</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="7">
-        <v>10</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="7">
-        <v>11</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="7">
-        <v>12</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="7">
-        <v>13</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="7">
-        <v>14</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="7">
-        <v>15</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="7">
-        <v>16</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="7">
-        <v>17</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="7">
-        <v>18</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="7">
-        <v>19</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="7">
-        <v>20</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="7">
-        <v>21</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="7">
-        <v>22</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>699</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="7">
-        <v>23</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>704</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="58.140625" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21">
+      <c r="C1" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="7">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="7">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="7">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="7">
+        <v>14</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="7">
+        <v>15</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="7">
+        <v>16</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7">
+        <v>17</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="7">
+        <v>18</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="7">
+        <v>19</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="7">
+        <v>20</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="7">
+        <v>21</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="7">
+        <v>22</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="7">
+        <v>23</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="30.8533333333333" customWidth="1"/>
-    <col min="4" max="4" width="24.7133333333333" customWidth="1"/>
-    <col min="5" max="5" width="18.7133333333333" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>707</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -7505,82 +7583,81 @@
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>710</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>712</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>710</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>710</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>709</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>710</v>
       </c>
       <c r="E7" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="descubrelalibertad@gmail.com"/>
-    <hyperlink ref="C4" r:id="rId1" display="descubrelalibertad@gmail.com"/>
-    <hyperlink ref="C5" r:id="rId1" display="descubrelalibertad@gmail.com"/>
-    <hyperlink ref="C6" r:id="rId1" display="descubrelalibertad@gmail.com"/>
-    <hyperlink ref="C7" r:id="rId1" display="descubrelalibertad@gmail.com"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Documentos/BASE-DE-DATOS-DEL-SISTEMA.xlsx
+++ b/Documentos/BASE-DE-DATOS-DEL-SISTEMA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17865" windowHeight="12375" tabRatio="674" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17865" windowHeight="12375" tabRatio="674" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SITIOS TURISTICOS" sheetId="1" r:id="rId1"/>
@@ -2659,6 +2659,7 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2671,7 +2672,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3029,8 +3029,8 @@
   </sheetPr>
   <dimension ref="A2:R37"/>
   <sheetViews>
-    <sheetView topLeftCell="P5" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="E26" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3069,10 +3069,10 @@
       <c r="N3" s="55"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="71" t="s">
         <v>3</v>
       </c>
       <c r="L4" s="55"/>
@@ -3080,8 +3080,8 @@
       <c r="N4" s="55"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="C5" s="69"/>
-      <c r="D5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
       <c r="L5" s="55"/>
       <c r="M5" s="55"/>
       <c r="N5" s="55"/>
@@ -4916,8 +4916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AS40"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4949,18 +4949,18 @@
       <c r="I4" s="34"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="73" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="E6" s="71"/>
-      <c r="F6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
     </row>
@@ -6270,65 +6270,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="73">
+      <c r="A1" s="69">
         <f>H3</f>
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="69" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="69" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="69" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="69" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="69" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="69" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="69" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="69" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="69" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="69" t="s">
         <v>725</v>
       </c>
     </row>
